--- a/src/resource/Leetcode.xlsx
+++ b/src/resource/Leetcode.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\leetcode_codeworks\src\resource\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E815C852-C49A-47F1-BBC8-E8FC705BAFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Top100" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,13 +24,298 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Solution1</t>
+  </si>
+  <si>
+    <t>Solution2</t>
+  </si>
+  <si>
+    <t>160. 相交链表</t>
+  </si>
+  <si>
+    <t>暴力解法：双循环</t>
+  </si>
+  <si>
+    <t>哈希集合</t>
+  </si>
+  <si>
+    <t>Solution3</t>
+  </si>
+  <si>
+    <t>141. 环形链表</t>
+  </si>
+  <si>
+    <t>暴力解法：哈希集合
+时间O(n)； 空间O(n)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">快慢指针
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间O(n)；空间O(1)</t>
+    </r>
+  </si>
+  <si>
+    <t>过河拆桥：val设为none
+时间O(n)；空间O(1)</t>
+  </si>
+  <si>
+    <t>Solution4</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>应用场景：寻找环、查找中点、判断回文、计算环的长度</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">快慢指针+双指针
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f=s+nb; f=2s; a; a+nb
+时间O(n)；空间O(1)</t>
+    </r>
+  </si>
+  <si>
+    <t>142. 环形链表 II</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">双指针
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a+c+b=b+c+a
+时间O(n); 空间O(1)</t>
+    </r>
+  </si>
+  <si>
+    <t>19. 删除链表的倒数第 N 个结点</t>
+  </si>
+  <si>
+    <t>暴力解法：遍历两次
+时间O(n)； 空间O(1)</t>
+  </si>
+  <si>
+    <t>哑巴节点</t>
+  </si>
+  <si>
+    <t>栈：Deque&lt;ListNode&gt; stack = new LinkedList&lt;ListNode&gt;();</t>
+  </si>
+  <si>
+    <t>栈
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>快慢指针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+快指针先走n步
+时间O(n); 空间O(1)</t>
+    </r>
+  </si>
+  <si>
+    <t>21. 合并两个有序链表</t>
+  </si>
+  <si>
+    <t>递归
+时间O(m+n); 空间O(m+n)</t>
+  </si>
+  <si>
+    <t>直接解法：按序组成新链表
+时间O(m+n)；空间O(1)</t>
+  </si>
+  <si>
+    <t>23.合并K个排序链表</t>
+  </si>
+  <si>
+    <t>双循环：两两排序
+时间O(nk^2);空间O(1)</t>
+  </si>
+  <si>
+    <t>循环+递归
+时间O(nk^2);空间O(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分冶合并
+时间 O(kn×logk)； 空间O(logk) </t>
+  </si>
+  <si>
+    <t>优先队列：利用其进行合并
+时间O(kn×logk)； 空间O(k)</t>
+  </si>
+  <si>
+    <t>86.分隔链表</t>
+  </si>
+  <si>
+    <t>双链表
+时间O(n); 空间O(1)</t>
+  </si>
+  <si>
+    <t>876. 链表的中间结点</t>
+  </si>
+  <si>
+    <t>快慢指针
+时间O(n); 空间O(1)</t>
+  </si>
+  <si>
+    <t>167. 两数之和 II - 输入有序数组</t>
+  </si>
+  <si>
+    <t>双指针
+时间O(n); 空间O(1)</t>
+  </si>
+  <si>
+    <t>26.删除有序数组中的重复项</t>
+  </si>
+  <si>
+    <t>哈希集合
+时间O(n)； 空间O(n)</t>
+  </si>
+  <si>
+    <t>双指针
+时间O(n)；空间O(1)</t>
+  </si>
+  <si>
+    <t>27. 移除元素</t>
+  </si>
+  <si>
+    <t>283.移动零</t>
+  </si>
+  <si>
+    <t>双指针: 两次循环
+时间O(n)；空间O(1)</t>
+  </si>
+  <si>
+    <t>双指针: 单次循环+交换
+时间O(n)；空间O(1)</t>
+  </si>
+  <si>
+    <t>344. 反转字符串</t>
+  </si>
+  <si>
+    <t>5. 最长回文子串</t>
+  </si>
+  <si>
+    <t>双循环(类似中心扩散）
+时间O(n^2); 空间O(1)</t>
+  </si>
+  <si>
+    <t>动态规划
+时间O(n^2);空间O(n^2)</t>
+  </si>
+  <si>
+    <t>83.删除排序链表中的重复元素</t>
+  </si>
+  <si>
+    <t>双指针
+时间O(n)；空间O(2)</t>
+  </si>
+  <si>
+    <t>单指针：cur.val == cur.next.val
+时间O(n)；空间O(1)</t>
+  </si>
+  <si>
+    <t>3.无重复字符的最长子串</t>
+  </si>
+  <si>
+    <t>43.找到字符串中所有字母异位词</t>
+  </si>
+  <si>
+    <t>滑动窗口（固长）：count[left]--;count[left]++
+时间O(m+(n−m)×Σ)；空间：O(Σ)</t>
+  </si>
+  <si>
+    <t>滑动窗口（不固长）：left = max(left, arr[c]+1)
+时间O(n)； 空间O(128)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -49,11 +340,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +644,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="61.109375" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/resource/Leetcode.xlsx
+++ b/src/resource/Leetcode.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\leetcode_codeworks\src\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E815C852-C49A-47F1-BBC8-E8FC705BAFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE3E26D-A246-423F-A798-CEE620459C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12816" yWindow="2400" windowWidth="18708" windowHeight="13788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top100" sheetId="1" r:id="rId1"/>
+    <sheet name="0" sheetId="3" r:id="rId2"/>
+    <sheet name="practice" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Top100'!$B$1:$F$6</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="155">
   <si>
     <t>Title</t>
   </si>
@@ -249,10 +254,6 @@
 时间O(n^2); 空间O(1)</t>
   </si>
   <si>
-    <t>动态规划
-时间O(n^2);空间O(n^2)</t>
-  </si>
-  <si>
     <t>83.删除排序链表中的重复元素</t>
   </si>
   <si>
@@ -267,22 +268,439 @@
     <t>3.无重复字符的最长子串</t>
   </si>
   <si>
-    <t>43.找到字符串中所有字母异位词</t>
-  </si>
-  <si>
     <t>滑动窗口（固长）：count[left]--;count[left]++
 时间O(m+(n−m)×Σ)；空间：O(Σ)</t>
   </si>
   <si>
     <t>滑动窗口（不固长）：left = max(left, arr[c]+1)
 时间O(n)； 空间O(128)</t>
+  </si>
+  <si>
+    <t>438.找到字符串中所有字母异位词</t>
+  </si>
+  <si>
+    <t>567. 字符串的排列</t>
+  </si>
+  <si>
+    <t>双指针：借助一个数组
+时间O(n+m+Σ)；空间O(Σ)</t>
+  </si>
+  <si>
+    <t>76.最小覆盖子串</t>
+  </si>
+  <si>
+    <t>滑动窗口（不固长）：借助两个哈希Map. map.put(*left, --); map.put(*right, ++)
+时间O(tn)；空间O(t)</t>
+  </si>
+  <si>
+    <t>滑动窗口：进-判-出</t>
+  </si>
+  <si>
+    <t>234.回文链表</t>
+  </si>
+  <si>
+    <t>快慢指针+栈
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>快慢指针+翻转前半链表
+时间O(n)；空间O(1)</t>
+  </si>
+  <si>
+    <t>递归
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>104.二叉树的最大深度</t>
+  </si>
+  <si>
+    <t>BFS层序遍历
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>DFS先序遍历 
+时间O(n);空间O(depth)</t>
+  </si>
+  <si>
+    <t>543. 二叉树的直径</t>
+  </si>
+  <si>
+    <t>144. 二叉树的前序遍历</t>
+  </si>
+  <si>
+    <t>DFS深度优先: 全局变量ans
+时间O(n); 空间O(d)</t>
+  </si>
+  <si>
+    <t>BFS: 全局变量list ans
+时间O(n)；空间O(d)</t>
+  </si>
+  <si>
+    <t>4.寻找两个有序数组的中位数</t>
+  </si>
+  <si>
+    <t>暴力解法，合并+查找中位数
+时间O(m+n); 空间O(m+n)</t>
+  </si>
+  <si>
+    <t>双指针：查找中位数
+时间O(k); 空间O(1)</t>
+  </si>
+  <si>
+    <t>二分查找
+时间O(logn); 空间O(1)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态规划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+时间O(n^2);空间O(n^2)</t>
+    </r>
+  </si>
+  <si>
+    <t>Krahets题解：动态规划，难理解 dp[i-1][j]这个条件
+时间O(n*m); 空间O(n*m)</t>
+  </si>
+  <si>
+    <t>10. 正则表达式匹配</t>
+  </si>
+  <si>
+    <t>以空间换时间：哈希表map
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>1. 两数之和</t>
+  </si>
+  <si>
+    <t>2. 两数相加</t>
+  </si>
+  <si>
+    <t>新链表：模拟链表相加
+时间O(n); 空间O(1)</t>
+  </si>
+  <si>
+    <t>49.字母异位词分组</t>
+  </si>
+  <si>
+    <t>哈希Map:key是字符转为数组排序
+时间O(nklogk); 空间O(nk)</t>
+  </si>
+  <si>
+    <t>哈希Map：key是借助26个字母数组count
+时间O(n(k+∣Σ∣))；空间O(n(k+∣Σ∣))</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>ASCII码一共128，0-127</t>
+  </si>
+  <si>
+    <t>128. 最长连续序列</t>
+  </si>
+  <si>
+    <t>先排序再检查连续性
+时间O(nlogn+n); 空间O(1)</t>
+  </si>
+  <si>
+    <t>11.盛最多水的容器</t>
+  </si>
+  <si>
+    <t>HashSet：去重，判断连续性
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>15. 三数之和</t>
+  </si>
+  <si>
+    <t>排序+三指针+手动去重
+时间O(n^2)；空间O(1)</t>
+  </si>
+  <si>
+    <t>数组排序+三指针+Set去重
+时间O(n^2); 空间O(logN)</t>
+  </si>
+  <si>
+    <t>42.接雨水</t>
+  </si>
+  <si>
+    <t>动态规划简化为双指针
+时间O(n); 空间O(1)</t>
+  </si>
+  <si>
+    <t>动态规划：借助两个数组
+时间O(n)； 空间O(n)</t>
+  </si>
+  <si>
+    <t>560.和为K的子数组</t>
+  </si>
+  <si>
+    <t>枚举
+时间O(n^2); 空间O(1)</t>
+  </si>
+  <si>
+    <t>前缀和+哈希map:key和，value次数
+时间O(n)； 空间O(n)</t>
+  </si>
+  <si>
+    <t>239.滑动窗口最大值</t>
+  </si>
+  <si>
+    <t>粗糙双指针
+时间O(nk); 空间O(n)</t>
+  </si>
+  <si>
+    <t>优先队列：[val, index]
+时间复杂度O(nlogn);空间O(n)</t>
+  </si>
+  <si>
+    <t>双队列：存储index
+时间O(n)；空间O(k)</t>
+  </si>
+  <si>
+    <t>53.最大子数组合</t>
+  </si>
+  <si>
+    <t>暴力解法
+时间O(n^2)；空间O(1)</t>
+  </si>
+  <si>
+    <t>动态规划
+时间O(n); 空间O(1)</t>
+  </si>
+  <si>
+    <t>哈希</t>
+  </si>
+  <si>
+    <t>双指针</t>
+  </si>
+  <si>
+    <t>滑动窗口</t>
+  </si>
+  <si>
+    <t>子串</t>
+  </si>
+  <si>
+    <t>普通数组</t>
+  </si>
+  <si>
+    <t>数组排序+双指针
+时间O(nlogn); 空间O(logn)</t>
+  </si>
+  <si>
+    <t>56.合并区间</t>
+  </si>
+  <si>
+    <t>遍历
+时间O(n); 空间O(k)</t>
+  </si>
+  <si>
+    <t>189. 轮转数组</t>
+  </si>
+  <si>
+    <t>0的计数
+时间O(n); 空间O(1)</t>
+  </si>
+  <si>
+    <t>238.除自身以外数组的乘积</t>
+  </si>
+  <si>
+    <t>41. 缺失的第一个正数</t>
+  </si>
+  <si>
+    <t>排序后查找
+时间O(nlogn); 空间O(1)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>双指针翻转三次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+时间O(n); 空间O(1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>左右乘积数组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+时间O(n); 空间O(1)</t>
+    </r>
+  </si>
+  <si>
+    <t>数组模拟哈希
+时间O(n); 空间O(1)</t>
+  </si>
+  <si>
+    <t>矩阵</t>
+  </si>
+  <si>
+    <t>73.矩阵置零</t>
+  </si>
+  <si>
+    <t>暴力解法
+时间O(mn); 空间O(k)</t>
+  </si>
+  <si>
+    <t>矩阵首行首列存储0值坐标
+时间O(mn); 空间O(1)</t>
+  </si>
+  <si>
+    <t>按层模拟：分四种情况
+时间O(mn); 空间O(1)</t>
+  </si>
+  <si>
+    <t>按方向模拟：4*2的方向数组
+时间O(mn);空间O(1)</t>
+  </si>
+  <si>
+    <t>54.螺旋矩阵</t>
+  </si>
+  <si>
+    <t>48.旋转图像</t>
+  </si>
+  <si>
+    <t>对焦交换+每层逆序
+时间O(n^2);空间O(1)</t>
+  </si>
+  <si>
+    <t>一次循环：i,j-&gt;j,n-1-i
+时间O(n^2);空间(1)</t>
+  </si>
+  <si>
+    <t>240.搜索二维矩阵 II</t>
+  </si>
+  <si>
+    <t>右上角开始：小i++,大j--
+时间O(n+m);空间O(1)</t>
+  </si>
+  <si>
+    <t>逐层二分查找：
+时间O(nlogn)；空间O(1)</t>
+  </si>
+  <si>
+    <t>暴力查找
+时间O(n^2);空间O(1)</t>
+  </si>
+  <si>
+    <t>链表</t>
+  </si>
+  <si>
+    <t>206. 反转链表</t>
+  </si>
+  <si>
+    <t>递归
+时间O(n);空间O(n)</t>
+  </si>
+  <si>
+    <t>直观方法
+时间O(n); 空间O(1)</t>
+  </si>
+  <si>
+    <t>24.两两交换链表中的节点</t>
+  </si>
+  <si>
+    <t>迭代：虚拟头节点
+时间O(n);空间O(1)</t>
+  </si>
+  <si>
+    <t>25. K 个一组翻转链表</t>
+  </si>
+  <si>
+    <t>局部翻转子链表
+时间O(n); 空间(1)</t>
+  </si>
+  <si>
+    <t>138. 随机链表的复制</t>
+  </si>
+  <si>
+    <t>腾讯/字节/美团</t>
+  </si>
+  <si>
+    <t>迭代复制+一分为二
+时间O(n);空间O(1)</t>
+  </si>
+  <si>
+    <t>哈希Map:key为cur,  value为newcur
+时间O(n); 空间O(1)</t>
+  </si>
+  <si>
+    <t>148. 排序链表</t>
+  </si>
+  <si>
+    <t>字节</t>
+  </si>
+  <si>
+    <t>快慢指针+归并排序
+时间O(nlogn);空间O(1)</t>
+  </si>
+  <si>
+    <t>快手/阿里国际</t>
+  </si>
+  <si>
+    <t>华为</t>
+  </si>
+  <si>
+    <t>146. LRU 缓存</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,16 +737,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -336,35 +812,129 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -645,248 +1215,773 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="61.109375" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="22.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="61.109375" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
+      <c r="B8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="1:10" s="23" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
+      <c r="B15" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="39"/>
+      <c r="B20" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="39"/>
+      <c r="B21" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="39"/>
+      <c r="B22" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="39"/>
+      <c r="B23" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" s="42"/>
+    </row>
+    <row r="25" spans="1:10" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="40"/>
+      <c r="B25" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="J25" s="42"/>
+    </row>
+    <row r="26" spans="1:10" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" s="42"/>
+    </row>
+    <row r="27" spans="1:10" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="J27" s="42"/>
+    </row>
+    <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="H35" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E40" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F40" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F6">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956CD963-D34B-463E-BECA-51FF241B6C00}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>48</v>
+      </c>
+      <c r="B1" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8631795D-8964-4AD0-903C-147D285439AA}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="22" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="8"/>
+    <col min="9" max="9" width="61.109375" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/resource/Leetcode.xlsx
+++ b/src/resource/Leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\leetcode_codeworks\src\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE3E26D-A246-423F-A798-CEE620459C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8B0D7A-5971-48E3-B5E8-D3701948C6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12816" yWindow="2400" windowWidth="18708" windowHeight="13788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9696" yWindow="1824" windowWidth="13380" windowHeight="10704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top100" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="practice" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Top100'!$B$1:$F$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Top100'!$B$1:$F$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="297">
   <si>
     <t>Title</t>
   </si>
@@ -343,10 +343,6 @@
 时间O(m+n); 空间O(m+n)</t>
   </si>
   <si>
-    <t>双指针：查找中位数
-时间O(k); 空间O(1)</t>
-  </si>
-  <si>
     <t>二分查找
 时间O(logn); 空间O(1)</t>
   </si>
@@ -495,6 +491,9 @@
     <t>双指针</t>
   </si>
   <si>
+    <t>动态规划</t>
+  </si>
+  <si>
     <t>滑动窗口</t>
   </si>
   <si>
@@ -695,12 +694,572 @@
   <si>
     <t>146. LRU 缓存</t>
   </si>
+  <si>
+    <t>继承LinkedHashMap， 重写removeEldestEntry</t>
+  </si>
+  <si>
+    <t>二叉树</t>
+  </si>
+  <si>
+    <t>递归：全局变量
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>94. 二叉树的中序遍历</t>
+  </si>
+  <si>
+    <t>226. 翻转二叉树</t>
+  </si>
+  <si>
+    <t>递归：DFS
+时间O(n);空间O(n)</t>
+  </si>
+  <si>
+    <t>借助队列迭代：BFS
+时间O(n);空间O(n)</t>
+  </si>
+  <si>
+    <t>101. 对称二叉树</t>
+  </si>
+  <si>
+    <t>递归: DFS
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>102. 二叉树的层序遍历</t>
+  </si>
+  <si>
+    <t>借助队列层序遍历:queue.size()
+时间O(n)；空间O(n)</t>
+  </si>
+  <si>
+    <t>108.将有序数组转换为二叉搜索树</t>
+  </si>
+  <si>
+    <t>递归：用数组下表
+时间O(n); 空间O(nlogn)</t>
+  </si>
+  <si>
+    <t>递归:Arrays.copyOfRange()
+时间O(n)；空间O(n)</t>
+  </si>
+  <si>
+    <t>递归：Long min
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>98. 验证二叉搜索树</t>
+  </si>
+  <si>
+    <t>迭代中序遍历+升序：stack
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>230. 二叉搜索树中第 K 小的元素</t>
+  </si>
+  <si>
+    <t>拼多多2</t>
+  </si>
+  <si>
+    <t>递归：中序遍历+访问第k个
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>递归：中序遍历+数组列表
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>迭代中序遍历：栈
+时间O(n);空间O(n)</t>
+  </si>
+  <si>
+    <t>199. 二叉树的右视图</t>
+  </si>
+  <si>
+    <t>迭代：层序遍历+队列
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>dfd递归：depth == list.size
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>114. 二叉树展开为链表</t>
+  </si>
+  <si>
+    <t>腾讯1/美团1</t>
+  </si>
+  <si>
+    <t>递归dfs
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>迭代bfs：先序遍历+栈
+时间O(n); 空间(n)</t>
+  </si>
+  <si>
+    <t>105.从前序与中序遍历序列构造二叉树</t>
+  </si>
+  <si>
+    <t>拼多多1</t>
+  </si>
+  <si>
+    <t>迭代:借助preoder定位inorder根节点，划分左右子树
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>437. 路径总和 III</t>
+  </si>
+  <si>
+    <t>双层递归：dfs
+时间O(n^2);空间O(n)</t>
+  </si>
+  <si>
+    <t>236.二叉树的最近公共祖先</t>
+  </si>
+  <si>
+    <t>字节1</t>
+  </si>
+  <si>
+    <t>字节1/阿里1/腾讯1</t>
+  </si>
+  <si>
+    <t>两层递归:结果为祖先list[-1]
+时间O(n^2); 空间O(n)</t>
+  </si>
+  <si>
+    <t>递归: 先序
+时间O(n);空间O(n)</t>
+  </si>
+  <si>
+    <t>124.二叉树中的最大路径和</t>
+  </si>
+  <si>
+    <t>美团1、微信/字节2</t>
+  </si>
+  <si>
+    <t>递归：返回单边分支给上游
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>图论</t>
+  </si>
+  <si>
+    <t>200. 岛屿数量</t>
+  </si>
+  <si>
+    <t>腾讯1/华为od/滴滴1</t>
+  </si>
+  <si>
+    <t>994. 腐烂的橘子</t>
+  </si>
+  <si>
+    <t>递归模板
+时间O(n*m); 空间O(n*m)</t>
+  </si>
+  <si>
+    <t>层序遍历： BFS
+时间O(m*n); 空间O(m*n)</t>
+  </si>
+  <si>
+    <t>207. 课程表</t>
+  </si>
+  <si>
+    <t>字节1/饿了么1/拼多多1</t>
+  </si>
+  <si>
+    <t>BFS迭代：借助入度哈希表和邻接图
+时间O(n+m)；空间O(n+m)</t>
+  </si>
+  <si>
+    <t>208. 实现 Trie (前缀树)</t>
+  </si>
+  <si>
+    <t>华为2</t>
+  </si>
+  <si>
+    <t>26叉树：next是new Trie[26]
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>回溯</t>
+  </si>
+  <si>
+    <t>腾讯1</t>
+  </si>
+  <si>
+    <t>46. 全排列</t>
+  </si>
+  <si>
+    <t>腾讯1/小米3/滴滴1</t>
+  </si>
+  <si>
+    <t>78. 子集</t>
+  </si>
+  <si>
+    <t>迭代：利用二进制&amp;和&lt;&lt;运算符
+时间O(n*2^n);空间O(n)</t>
+  </si>
+  <si>
+    <t>递归： list.add&gt;dfs&gt;list.remove&gt;dfs
+时间O(n*n^2); 空间O(n)</t>
+  </si>
+  <si>
+    <t>回溯模板：状态数组
+时间O(n*n!); 空间O(n*n！)</t>
+  </si>
+  <si>
+    <t>17. 电话号码的字母组合</t>
+  </si>
+  <si>
+    <t>递归：每个元素不同则dfsf方法调用两次dfs，关键index是否+1，且tartget是否改变
+时间O(S); 空间O(target)</t>
+  </si>
+  <si>
+    <t>39. 组合总和</t>
+  </si>
+  <si>
+    <t>22. 括号生成</t>
+  </si>
+  <si>
+    <r>
+      <t>递归：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有for循环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，借助start Index</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>递归：每个元素size相同，d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fs里有for循环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+时间O(3^m*4^n);空间O(m+n)</t>
+    </r>
+  </si>
+  <si>
+    <t>步骤：画树图，找状态（剪枝），找条件</t>
+  </si>
+  <si>
+    <r>
+      <t>拼多多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1/momenta1/字节1</t>
+    </r>
+  </si>
+  <si>
+    <t>递归：借助leftNum和 rightNum计数</t>
+  </si>
+  <si>
+    <t>79. 单词搜索</t>
+  </si>
+  <si>
+    <t>与岛屿问题类似</t>
+  </si>
+  <si>
+    <t>131. 分割回文串</t>
+  </si>
+  <si>
+    <t>递归模板：dfs中有循环</t>
+  </si>
+  <si>
+    <t>递归：三个条件数组，row + 1，col循环</t>
+  </si>
+  <si>
+    <t>51. N 皇后</t>
+  </si>
+  <si>
+    <t>二分查找</t>
+  </si>
+  <si>
+    <t>35. 搜索插入位置</t>
+  </si>
+  <si>
+    <t>递归：边界条件
+时间O(logn); 空间O(</t>
+  </si>
+  <si>
+    <t>迭代：return left
+时间O(logn);空间O(1)</t>
+  </si>
+  <si>
+    <t>74. 搜索二维矩阵</t>
+  </si>
+  <si>
+    <t>迭代：二分查找行，再二分查找列
+时间O(logm + logn); 空间O(1)</t>
+  </si>
+  <si>
+    <t>迭代：看作一维数组matrix[mid/n][mid%n]
+时间O(logmn);空间O(1)</t>
+  </si>
+  <si>
+    <t>二分法查找+确定范围
+时间O(logn);空间O(1)</t>
+  </si>
+  <si>
+    <t>34.在排序数组中查找元素的第一个和最后一个位置</t>
+  </si>
+  <si>
+    <t>33. 搜索旋转排序数组</t>
+  </si>
+  <si>
+    <t>找出逆转点+二分查找
+时间O(n/2+logn);空间O(1)</t>
+  </si>
+  <si>
+    <t>字节1/高德1</t>
+  </si>
+  <si>
+    <t>直接二分查找：改变num[mid]比较条件
+时间O(logn);空间O(1)</t>
+  </si>
+  <si>
+    <t>二分法：把情况分类讨论
+时间O(logn);空间O(1)</t>
+  </si>
+  <si>
+    <t>153.寻找旋转排序数组中的最小值</t>
+  </si>
+  <si>
+    <t>哈啰1/腾讯1</t>
+  </si>
+  <si>
+    <t>双指针：查找中位数
+时间O(m+n); 空间O(1)</t>
+  </si>
+  <si>
+    <t>栈
+时间O(n);空间O(n)</t>
+  </si>
+  <si>
+    <t>栈</t>
+  </si>
+  <si>
+    <t>20. 有效的括号</t>
+  </si>
+  <si>
+    <t>155. 最小栈</t>
+  </si>
+  <si>
+    <t>栈存储val与minVal的偏移量diff
+时间O(1); 空间O(n)</t>
+  </si>
+  <si>
+    <t>双栈：额外栈存储最小值
+时间O(1);空间O(n)</t>
+  </si>
+  <si>
+    <t>借助stringStack和numStack
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>394. 字符串解码</t>
+  </si>
+  <si>
+    <t>递归dfs(s, [.index+1)
+时间O(n); 空间O(n)</t>
+  </si>
+  <si>
+    <t>739. 每日温度</t>
+  </si>
+  <si>
+    <t>单调栈
+时间O(n)； 空间O(n)</t>
+  </si>
+  <si>
+    <t>84. 柱状图中最大的矩形</t>
+  </si>
+  <si>
+    <t>单调递增栈+双数组+哨兵
+时间O(n);空间O(n)</t>
+  </si>
+  <si>
+    <t>堆</t>
+  </si>
+  <si>
+    <t>215.数组中的第K个最大元素</t>
+  </si>
+  <si>
+    <t>字节1/高德1/腾讯1/淘天1</t>
+  </si>
+  <si>
+    <t>快排分区：
+//防止无限循环
+            l++;
+            r--;
+时间O(n): 空间O(1)</t>
+  </si>
+  <si>
+    <t>小顶堆：
+时间O(nlogk); 空间O(n)</t>
+  </si>
+  <si>
+    <t>347. 前 K 个高频元素</t>
+  </si>
+  <si>
+    <t>哈希+大堆栈：
+时间O(n + m log k); 空间O(n)</t>
+  </si>
+  <si>
+    <t>双优先队列：前半部分大顶堆，后半部分小顶堆
+时间O(logn)；空间O(n)</t>
+  </si>
+  <si>
+    <t>295. 数据流的中位数</t>
+  </si>
+  <si>
+    <r>
+      <t>拼多多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1/Tiktok</t>
+    </r>
+  </si>
+  <si>
+    <t>贪心算法</t>
+  </si>
+  <si>
+    <t>121.买卖股票的最佳时机</t>
+  </si>
+  <si>
+    <t>动态规划
+时间O(n);空间O(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.买卖股票的最佳时机 II
+</t>
+  </si>
+  <si>
+    <t>贪心算法
+时间O(n);空间O(1)</t>
+  </si>
+  <si>
+    <t>123.买卖股票的最佳时机 III</t>
+  </si>
+  <si>
+    <t>美团/富途证券</t>
+  </si>
+  <si>
+    <t>模板化：动态规划
+时间O(n*2k); 空间O(2k)</t>
+  </si>
+  <si>
+    <t>188.买卖股票的最佳时机 IV</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/solutions/2199035/yi-tao-mo-ban-ji-xing-dai-ma-bi-zhao-yan-0ap8/</t>
+  </si>
+  <si>
+    <t>贪心算法：找能够抵达的最远距离
+时间O(n);空间O(1）</t>
+  </si>
+  <si>
+    <t>55. 跳跃游戏</t>
+  </si>
+  <si>
+    <t>45. 跳跃游戏 II</t>
+  </si>
+  <si>
+    <t>贪心算法：最大距离作为下次endIndex
+时间O(n); 空间O(1)</t>
+  </si>
+  <si>
+    <t>763. 划分字母区间</t>
+  </si>
+  <si>
+    <t>贪心算法：i== end, end= max(end, last[i])
+时间O(n);空间O(1)</t>
+  </si>
+  <si>
+    <t>70. 爬楼梯</t>
+  </si>
+  <si>
+    <t>打表
+时间O(1)； 空间O(1)</t>
+  </si>
+  <si>
+    <t>118. 杨辉三角</t>
+  </si>
+  <si>
+    <t>直接求解
+时间O(n^2); 空间O(1)</t>
+  </si>
+  <si>
+    <t>198. 打家劫舍</t>
+  </si>
+  <si>
+    <t>动态规划：状态转移（偷/不偷）
+时间O(n); 空间O(1)</t>
+  </si>
+  <si>
+    <t>动态规划：划分为子问题，max(f(k-1), f(k-2)+nums[i-1])</t>
+  </si>
+  <si>
+    <t>279. 完全平方数</t>
+  </si>
+  <si>
+    <t>动态规划dp[i]=min(dp[i], dp[i-j*j]+1)
+时间O(nk);空间O(n)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,6 +1311,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -759,8 +1325,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -803,6 +1392,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -828,10 +1429,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -842,9 +1444,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -855,7 +1454,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -898,10 +1496,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -913,7 +1511,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,9 +1533,70 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1215,10 +1874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,7 +1891,7 @@
     <col min="7" max="7" width="7.5546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="34.109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="2"/>
-    <col min="10" max="10" width="61.109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="61.109375" style="7" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -1255,532 +1914,1187 @@
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
+      <c r="B8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" s="21" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" s="20" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:10" s="24" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
+      <c r="B17" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="27"/>
+    </row>
+    <row r="21" spans="1:10" s="39" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="40"/>
+    </row>
+    <row r="22" spans="1:10" s="39" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="40"/>
+    </row>
+    <row r="23" spans="1:10" s="39" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" s="40"/>
+    </row>
+    <row r="24" spans="1:10" s="39" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="J24" s="40"/>
+    </row>
+    <row r="25" spans="1:10" s="42" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="43"/>
+    </row>
+    <row r="26" spans="1:10" s="42" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="41"/>
+      <c r="B26" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="J26" s="43"/>
+    </row>
+    <row r="27" spans="1:10" s="42" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="41"/>
+      <c r="B27" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="43"/>
+    </row>
+    <row r="28" spans="1:10" s="42" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="41"/>
+      <c r="B28" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="43"/>
+    </row>
+    <row r="29" spans="1:10" s="42" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="41"/>
+      <c r="B29" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="43"/>
+    </row>
+    <row r="30" spans="1:10" s="42" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="41"/>
+      <c r="B30" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="43"/>
+    </row>
+    <row r="31" spans="1:10" s="42" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="41"/>
+      <c r="B31" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31" s="43"/>
+    </row>
+    <row r="32" spans="1:10" s="42" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="41"/>
+      <c r="B32" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="43"/>
+    </row>
+    <row r="33" spans="1:10" s="42" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="41"/>
+      <c r="B33" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="J33" s="43"/>
+    </row>
+    <row r="34" spans="1:10" s="42" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="J34" s="43"/>
+    </row>
+    <row r="35" spans="1:10" s="42" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="41"/>
+      <c r="B35" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="J35" s="43"/>
+    </row>
+    <row r="36" spans="1:10" s="42" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="J36" s="43"/>
+    </row>
+    <row r="37" spans="1:10" s="42" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="43"/>
+    </row>
+    <row r="38" spans="1:10" s="42" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="J38" s="43"/>
+    </row>
+    <row r="39" spans="1:10" s="49" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="J39" s="50"/>
+    </row>
+    <row r="40" spans="1:10" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="51"/>
+      <c r="B40" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="J40" s="53"/>
+    </row>
+    <row r="41" spans="1:10" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="51"/>
+      <c r="B41" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="J41" s="53"/>
+    </row>
+    <row r="42" spans="1:10" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="51"/>
+      <c r="B42" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="J42" s="53"/>
+    </row>
+    <row r="43" spans="1:10" s="49" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="48"/>
+      <c r="B43" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C43" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="J43" s="50"/>
+    </row>
+    <row r="44" spans="1:10" s="49" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="48"/>
+      <c r="B44" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="J44" s="50"/>
+    </row>
+    <row r="45" spans="1:10" s="49" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="48"/>
+      <c r="B45" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="J45" s="50"/>
+    </row>
+    <row r="46" spans="1:10" s="49" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="48"/>
+      <c r="B46" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="J46" s="50"/>
+    </row>
+    <row r="47" spans="1:10" s="49" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="E47" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="J47" s="50"/>
+    </row>
+    <row r="48" spans="1:10" s="49" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="48"/>
+      <c r="B48" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="J48" s="50"/>
+    </row>
+    <row r="49" spans="1:10" s="49" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="J49" s="50"/>
+    </row>
+    <row r="50" spans="1:10" s="49" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="J50" s="50"/>
+    </row>
+    <row r="51" spans="1:10" s="49" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="48"/>
+      <c r="B51" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="J51" s="50"/>
+    </row>
+    <row r="52" spans="1:10" s="49" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="J52" s="50"/>
+    </row>
+    <row r="53" spans="1:10" s="49" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="J53" s="50"/>
+    </row>
+    <row r="54" spans="1:10" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="J54" s="23"/>
+    </row>
+    <row r="55" spans="1:10" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="35"/>
+      <c r="B55" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="J55" s="23"/>
+    </row>
+    <row r="56" spans="1:10" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="J56" s="23"/>
+    </row>
+    <row r="57" spans="1:10" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J57" s="23"/>
+    </row>
+    <row r="58" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J58" s="27"/>
+    </row>
+    <row r="59" spans="1:10" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="37"/>
+      <c r="B59" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="J59" s="27"/>
+    </row>
+    <row r="60" spans="1:10" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="37"/>
+      <c r="B60" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="J60" s="27"/>
+    </row>
+    <row r="61" spans="1:10" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A61" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="D61" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="J61" s="27"/>
+    </row>
+    <row r="62" spans="1:10" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="J62" s="27"/>
+    </row>
+    <row r="63" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="37"/>
+      <c r="B63" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J63" s="27"/>
+    </row>
+    <row r="64" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="J64" s="27"/>
+    </row>
+    <row r="65" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="37"/>
+      <c r="B65" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="J65" s="27"/>
+    </row>
+    <row r="66" spans="1:10" s="42" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="E66" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="J66" s="43"/>
+    </row>
+    <row r="67" spans="1:10" s="42" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="41"/>
+      <c r="B67" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D67" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="J67" s="43"/>
+    </row>
+    <row r="68" spans="1:10" s="42" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="41"/>
+      <c r="B68" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="J68" s="43"/>
+    </row>
+    <row r="69" spans="1:10" s="42" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="D69" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="J69" s="43"/>
+    </row>
+    <row r="70" spans="1:10" s="42" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="41"/>
+      <c r="B70" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="J70" s="43"/>
+    </row>
+    <row r="71" spans="1:10" s="42" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B71" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C71" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D71" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="E71" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="F71" s="59"/>
+      <c r="J71" s="43"/>
+    </row>
+    <row r="72" spans="1:10" s="39" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="E72" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="J72" s="40"/>
+    </row>
+    <row r="73" spans="1:10" s="39" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="J73" s="40"/>
+    </row>
+    <row r="74" spans="1:10" s="39" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B74" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C74" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="J74" s="40"/>
+    </row>
+    <row r="75" spans="1:10" s="39" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="38"/>
+      <c r="B75" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="C75" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="J75" s="40"/>
+    </row>
+    <row r="76" spans="1:10" s="39" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="38"/>
+      <c r="B76" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="C76" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="J76" s="40"/>
+    </row>
+    <row r="77" spans="1:10" s="20" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A77" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C77" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="D77" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="J77" s="23"/>
+    </row>
+    <row r="78" spans="1:10" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="35"/>
+      <c r="B78" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C78" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="J78" s="23"/>
+    </row>
+    <row r="79" spans="1:10" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C79" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="J79" s="23"/>
+    </row>
+    <row r="80" spans="1:10" s="49" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A80" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="B80" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="C80" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="D80" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="E80" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="J80" s="50"/>
+    </row>
+    <row r="81" spans="1:10" s="49" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="48"/>
+      <c r="B81" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="C81" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="D81" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="J81" s="50"/>
+    </row>
+    <row r="82" spans="1:10" s="49" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="B82" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82" s="55"/>
+      <c r="J82" s="50"/>
+    </row>
+    <row r="83" spans="1:10" s="49" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="48"/>
+      <c r="B83" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="C83" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="J83" s="50"/>
+    </row>
+    <row r="84" spans="1:10" s="49" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="48"/>
+      <c r="B84" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="C84" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="J84" s="50"/>
+    </row>
+    <row r="85" spans="1:10" s="49" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="C85" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="J85" s="50"/>
+    </row>
+    <row r="86" spans="1:10" s="49" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="C86" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="J86" s="50"/>
+    </row>
+    <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:10" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="1:10" s="23" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="1:10" s="22" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
-      <c r="B15" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="26" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16" s="27"/>
-    </row>
-    <row r="17" spans="1:10" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="27"/>
-    </row>
-    <row r="18" spans="1:10" s="26" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="27"/>
-    </row>
-    <row r="19" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="29"/>
-    </row>
-    <row r="20" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="J20" s="29"/>
-    </row>
-    <row r="21" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="J22" s="29"/>
-    </row>
-    <row r="23" spans="1:10" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="J24" s="42"/>
-    </row>
-    <row r="25" spans="1:10" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="J25" s="42"/>
-    </row>
-    <row r="26" spans="1:10" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="J26" s="42"/>
-    </row>
-    <row r="27" spans="1:10" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="J27" s="42"/>
-    </row>
-    <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B38" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>154</v>
+      <c r="B87" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="47" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D89" s="47" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F6">
+  <autoFilter ref="B1:F3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F3">
     <sortCondition descending="1" ref="B1"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="D80" r:id="rId1" xr:uid="{2844BDF5-101E-4030-B21D-001945B99570}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1798,7 +3112,7 @@
       <c r="A1">
         <v>48</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1807,7 +3121,7 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1815,12 +3129,12 @@
         <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1838,146 +3152,146 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="22" style="8" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="34.109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="8"/>
-    <col min="9" max="9" width="61.109375" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="22.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="22" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="7"/>
+    <col min="9" max="9" width="61.109375" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>69</v>
       </c>
     </row>
